--- a/Content/UploadedFiles/Trainings.xlsx
+++ b/Content/UploadedFiles/Trainings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Employee Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Training Focus</t>
   </si>
   <si>
-    <t>test 3</t>
-  </si>
-  <si>
     <t>abcd</t>
   </si>
   <si>
@@ -71,6 +68,15 @@
   </si>
   <si>
     <t>local</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>sas</t>
+  </si>
+  <si>
+    <t>Frank Warnakula</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,34 +489,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2014</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
       <c r="I2">
         <v>15000</v>
       </c>
       <c r="J2">
-        <v>1212</v>
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
